--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ifng-Ifngr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ifng-Ifngr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Ifng</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,13 +525,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -540,16 +540,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.33467</v>
+        <v>0.4227963333333333</v>
       </c>
       <c r="H2">
-        <v>1.00401</v>
+        <v>1.268389</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.9187469758736285</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.9187469758736285</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.001873333333333</v>
+        <v>5.595533666666667</v>
       </c>
       <c r="N2">
-        <v>18.00562</v>
+        <v>16.786601</v>
       </c>
       <c r="O2">
-        <v>0.06159300780570676</v>
+        <v>0.04791382214400042</v>
       </c>
       <c r="P2">
-        <v>0.06320927900063678</v>
+        <v>0.048561535774258</v>
       </c>
       <c r="Q2">
-        <v>2.008646948466667</v>
+        <v>2.365771117309889</v>
       </c>
       <c r="R2">
-        <v>18.0778225362</v>
+        <v>21.291940055789</v>
       </c>
       <c r="S2">
-        <v>0.06159300780570676</v>
+        <v>0.04402067919734728</v>
       </c>
       <c r="T2">
-        <v>0.06320927900063678</v>
+        <v>0.04461576413637856</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,13 +587,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -602,16 +602,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.33467</v>
+        <v>0.4227963333333333</v>
       </c>
       <c r="H3">
-        <v>1.00401</v>
+        <v>1.268389</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.9187469758736285</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.9187469758736285</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>32.481502</v>
       </c>
       <c r="O3">
-        <v>0.1111116088325245</v>
+        <v>0.09271161623475734</v>
       </c>
       <c r="P3">
-        <v>0.1140273049346671</v>
+        <v>0.09396492007968932</v>
       </c>
       <c r="Q3">
-        <v>3.623528091446667</v>
+        <v>4.577686648919778</v>
       </c>
       <c r="R3">
-        <v>32.61175282302</v>
+        <v>41.199179840278</v>
       </c>
       <c r="S3">
-        <v>0.1111116088325245</v>
+        <v>0.0851785170440397</v>
       </c>
       <c r="T3">
-        <v>0.1140273049346671</v>
+        <v>0.08632998616142175</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
@@ -664,16 +664,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.33467</v>
+        <v>0.4227963333333333</v>
       </c>
       <c r="H4">
-        <v>1.00401</v>
+        <v>1.268389</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.9187469758736285</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.9187469758736285</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>38.18197833333333</v>
+        <v>52.932222</v>
       </c>
       <c r="N4">
-        <v>114.545935</v>
+        <v>158.796666</v>
       </c>
       <c r="O4">
-        <v>0.3918348087189988</v>
+        <v>0.4532516863767858</v>
       </c>
       <c r="P4">
-        <v>0.4021170036801735</v>
+        <v>0.4593788806198408</v>
       </c>
       <c r="Q4">
-        <v>12.77836268881667</v>
+        <v>22.379549376786</v>
       </c>
       <c r="R4">
-        <v>115.00526419935</v>
+        <v>201.415944391074</v>
       </c>
       <c r="S4">
-        <v>0.3918348087189988</v>
+        <v>0.4164236161682942</v>
       </c>
       <c r="T4">
-        <v>0.4021170036801735</v>
+        <v>0.4220529573496913</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -726,16 +726,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.33467</v>
+        <v>0.4227963333333333</v>
       </c>
       <c r="H5">
-        <v>1.00401</v>
+        <v>1.268389</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.9187469758736285</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.9187469758736285</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.474980500000001</v>
+        <v>4.6729655</v>
       </c>
       <c r="N5">
-        <v>14.949961</v>
+        <v>9.345931</v>
       </c>
       <c r="O5">
-        <v>0.07671047133350686</v>
+        <v>0.04001399172805441</v>
       </c>
       <c r="P5">
-        <v>0.05248229474450971</v>
+        <v>0.02703660869763014</v>
       </c>
       <c r="Q5">
-        <v>2.501651723935001</v>
+        <v>1.975712679193167</v>
       </c>
       <c r="R5">
-        <v>15.00991034361</v>
+        <v>11.854276075159</v>
       </c>
       <c r="S5">
-        <v>0.07671047133350686</v>
+        <v>0.03676273389278238</v>
       </c>
       <c r="T5">
-        <v>0.05248229474450971</v>
+        <v>0.02483980247882633</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,13 +773,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
         <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -788,16 +788,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.33467</v>
+        <v>0.4227963333333333</v>
       </c>
       <c r="H6">
-        <v>1.00401</v>
+        <v>1.268389</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.9187469758736285</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.9187469758736285</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,338 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>34.95807</v>
+        <v>42.755399</v>
       </c>
       <c r="N6">
-        <v>104.87421</v>
+        <v>128.266197</v>
       </c>
       <c r="O6">
-        <v>0.3587501033092629</v>
+        <v>0.3661088835164021</v>
       </c>
       <c r="P6">
-        <v>0.3681641176400131</v>
+        <v>0.3710580548285817</v>
       </c>
       <c r="Q6">
-        <v>11.6994172869</v>
+        <v>18.07682592740367</v>
       </c>
       <c r="R6">
-        <v>105.2947555821</v>
+        <v>162.691433346633</v>
       </c>
       <c r="S6">
-        <v>0.3587501033092629</v>
+        <v>0.336361429571165</v>
       </c>
       <c r="T6">
-        <v>0.3681641176400131</v>
+        <v>0.3409084657473104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.03739166666666666</v>
+      </c>
+      <c r="H7">
+        <v>0.112175</v>
+      </c>
+      <c r="I7">
+        <v>0.08125302412637153</v>
+      </c>
+      <c r="J7">
+        <v>0.08125302412637155</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>5.595533666666667</v>
+      </c>
+      <c r="N7">
+        <v>16.786601</v>
+      </c>
+      <c r="O7">
+        <v>0.04791382214400042</v>
+      </c>
+      <c r="P7">
+        <v>0.048561535774258</v>
+      </c>
+      <c r="Q7">
+        <v>0.2092263296861111</v>
+      </c>
+      <c r="R7">
+        <v>1.883036967175</v>
+      </c>
+      <c r="S7">
+        <v>0.00389314294665314</v>
+      </c>
+      <c r="T7">
+        <v>0.00394577163787944</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.03739166666666666</v>
+      </c>
+      <c r="H8">
+        <v>0.112175</v>
+      </c>
+      <c r="I8">
+        <v>0.08125302412637153</v>
+      </c>
+      <c r="J8">
+        <v>0.08125302412637155</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>10.82716733333333</v>
+      </c>
+      <c r="N8">
+        <v>32.481502</v>
+      </c>
+      <c r="O8">
+        <v>0.09271161623475734</v>
+      </c>
+      <c r="P8">
+        <v>0.09396492007968932</v>
+      </c>
+      <c r="Q8">
+        <v>0.4048458318722222</v>
+      </c>
+      <c r="R8">
+        <v>3.64361248685</v>
+      </c>
+      <c r="S8">
+        <v>0.007533099190717637</v>
+      </c>
+      <c r="T8">
+        <v>0.00763493391826757</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.03739166666666666</v>
+      </c>
+      <c r="H9">
+        <v>0.112175</v>
+      </c>
+      <c r="I9">
+        <v>0.08125302412637153</v>
+      </c>
+      <c r="J9">
+        <v>0.08125302412637155</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>52.932222</v>
+      </c>
+      <c r="N9">
+        <v>158.796666</v>
+      </c>
+      <c r="O9">
+        <v>0.4532516863767858</v>
+      </c>
+      <c r="P9">
+        <v>0.4593788806198408</v>
+      </c>
+      <c r="Q9">
+        <v>1.97922400095</v>
+      </c>
+      <c r="R9">
+        <v>17.81301600855</v>
+      </c>
+      <c r="S9">
+        <v>0.03682807020849155</v>
+      </c>
+      <c r="T9">
+        <v>0.03732592327014948</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.03739166666666666</v>
+      </c>
+      <c r="H10">
+        <v>0.112175</v>
+      </c>
+      <c r="I10">
+        <v>0.08125302412637153</v>
+      </c>
+      <c r="J10">
+        <v>0.08125302412637155</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>4.6729655</v>
+      </c>
+      <c r="N10">
+        <v>9.345931</v>
+      </c>
+      <c r="O10">
+        <v>0.04001399172805441</v>
+      </c>
+      <c r="P10">
+        <v>0.02703660869763014</v>
+      </c>
+      <c r="Q10">
+        <v>0.1747299683208333</v>
+      </c>
+      <c r="R10">
+        <v>1.048379809925</v>
+      </c>
+      <c r="S10">
+        <v>0.003251257835272036</v>
+      </c>
+      <c r="T10">
+        <v>0.002196806218803809</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.03739166666666666</v>
+      </c>
+      <c r="H11">
+        <v>0.112175</v>
+      </c>
+      <c r="I11">
+        <v>0.08125302412637153</v>
+      </c>
+      <c r="J11">
+        <v>0.08125302412637155</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>42.755399</v>
+      </c>
+      <c r="N11">
+        <v>128.266197</v>
+      </c>
+      <c r="O11">
+        <v>0.3661088835164021</v>
+      </c>
+      <c r="P11">
+        <v>0.3710580548285817</v>
+      </c>
+      <c r="Q11">
+        <v>1.598695627608333</v>
+      </c>
+      <c r="R11">
+        <v>14.388260648475</v>
+      </c>
+      <c r="S11">
+        <v>0.02974745394523717</v>
+      </c>
+      <c r="T11">
+        <v>0.03014958908127124</v>
       </c>
     </row>
   </sheetData>
